--- a/data/raw/Selected sixteen organims.xlsx
+++ b/data/raw/Selected sixteen organims.xlsx
@@ -201,128 +201,129 @@
     <t>osa</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>T00044</t>
+  </si>
+  <si>
+    <t>ece</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>T01710</t>
+  </si>
+  <si>
+    <t>gmx</t>
+  </si>
+  <si>
+    <t>Glycine max</t>
+  </si>
+  <si>
+    <t>soybean</t>
+  </si>
+  <si>
+    <t>Eukaryotes;Plants;Eudicots;Pea family</t>
+  </si>
+  <si>
+    <t>T01010</t>
+  </si>
+  <si>
+    <t>xla</t>
+  </si>
+  <si>
+    <t>Xenopus laevis</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>Eukaryotes;Animals;Vertebrates;Amphibians</t>
+  </si>
+  <si>
+    <t>Prokaryotes;Bacteria;Gammaproteobacteria - Enterobacte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homo_sapiens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mus_musculus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rattus_norvegicus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drosophila_melanogaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis_thaliana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharomyces_cerevisiae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macaca_mulatta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caenorhabditis_elegans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sus_scrofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bos_taurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallus_gallus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zea_mays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escherichia_coli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycine_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xenopus_laevis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species.full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species.brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Oryza sativa japonica</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>T00044</t>
-  </si>
-  <si>
-    <t>ece</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>T01710</t>
-  </si>
-  <si>
-    <t>gmx</t>
-  </si>
-  <si>
-    <t>Glycine max</t>
-  </si>
-  <si>
-    <t>soybean</t>
-  </si>
-  <si>
-    <t>Eukaryotes;Plants;Eudicots;Pea family</t>
-  </si>
-  <si>
-    <t>T01010</t>
-  </si>
-  <si>
-    <t>xla</t>
-  </si>
-  <si>
-    <t>Xenopus laevis</t>
-  </si>
-  <si>
-    <t>frog</t>
-  </si>
-  <si>
-    <t>Eukaryotes;Animals;Vertebrates;Amphibians</t>
-  </si>
-  <si>
-    <t>Prokaryotes;Bacteria;Gammaproteobacteria - Enterobacte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Homo_sapiens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mus_musculus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rattus_norvegicus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drosophila_melanogaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabidopsis_thaliana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharomyces_cerevisiae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Macaca_mulatta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caenorhabditis_elegans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sus_scrofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bos_taurus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gallus_gallus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zea_mays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Oryza_sativa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Escherichia_coli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glycine_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xenopus_laevis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species.full</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species.brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +698,7 @@
   <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -712,16 +713,16 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -741,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -761,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -781,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -801,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -947,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -967,7 +968,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -987,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1007,7 +1008,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>38</v>
@@ -1027,7 +1028,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
@@ -1047,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>47</v>
@@ -1067,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
@@ -1087,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>56</v>
@@ -1104,13 +1105,13 @@
         <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>57</v>
@@ -1118,62 +1119,62 @@
     </row>
     <row r="15" spans="1:1025" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1025" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
